--- a/docs/Milestones.xlsx
+++ b/docs/Milestones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\Source\Github\nt\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624B33EA-82B6-42C4-8A65-31DC291DE7D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35446AE-00AE-46B7-A2A7-4639249391D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
   <si>
     <t>PROJECT MILESTONES</t>
   </si>
@@ -299,101 +299,71 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -703,7 +673,7 @@
   <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,209 +686,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="18" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="24" t="s">
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="17" t="s">
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="17" t="s">
+      <c r="R6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
+      <c r="I7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
       <c r="S7" s="1" t="s">
         <v>30</v>
       </c>
@@ -929,36 +899,36 @@
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
+      <c r="I8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
       <c r="S8" s="1" t="s">
         <v>30</v>
       </c>
@@ -969,34 +939,34 @@
       <c r="X8" s="1"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
+      <c r="I9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
       <c r="S9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1007,34 +977,36 @@
       <c r="X9" s="1"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
+      <c r="I10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
       <c r="S10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1045,34 +1017,36 @@
       <c r="X10" s="1"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
+      <c r="I11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
       <c r="S11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1083,28 +1057,28 @@
       <c r="X11" s="1"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -1113,28 +1087,28 @@
       <c r="X12" s="1"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -1143,28 +1117,28 @@
       <c r="X13" s="1"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -1173,26 +1147,26 @@
       <c r="X14" s="1"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -1201,32 +1175,32 @@
       <c r="X15" s="1"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
+      <c r="I16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
       <c r="S16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1237,28 +1211,28 @@
       <c r="X16" s="1"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -1267,28 +1241,28 @@
       <c r="X17" s="1"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -1297,26 +1271,26 @@
       <c r="X18" s="1"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -1325,28 +1299,28 @@
       <c r="X19" s="1"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -1355,28 +1329,28 @@
       <c r="X20" s="1"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -1385,28 +1359,28 @@
       <c r="X21" s="1"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -1415,24 +1389,24 @@
       <c r="X22" s="1"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
@@ -1441,24 +1415,24 @@
       <c r="X23" s="1"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -1467,24 +1441,24 @@
       <c r="X24" s="1"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -1493,24 +1467,24 @@
       <c r="X25" s="1"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -1519,24 +1493,24 @@
       <c r="X26" s="1"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
@@ -1545,24 +1519,24 @@
       <c r="X27" s="1"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
@@ -1571,24 +1545,24 @@
       <c r="X28" s="1"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
@@ -1597,24 +1571,24 @@
       <c r="X29" s="1"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -1623,24 +1597,24 @@
       <c r="X30" s="1"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -1650,6 +1624,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:G23"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A1:AC2"/>
     <mergeCell ref="A3:AC3"/>
@@ -1666,22 +1656,6 @@
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:G23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I7">

--- a/docs/Milestones.xlsx
+++ b/docs/Milestones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\Source\Github\nt\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35446AE-00AE-46B7-A2A7-4639249391D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B533C7F4-0971-412D-90ED-14A0100644BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
   <si>
     <t>PROJECT MILESTONES</t>
   </si>
@@ -314,6 +314,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -348,15 +357,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -673,7 +673,7 @@
   <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,148 +686,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="19" t="s">
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="22" t="s">
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="1"/>
       <c r="I6" s="5" t="s">
         <v>24</v>
@@ -1147,15 +1147,15 @@
       <c r="X14" s="1"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="2"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1223,7 +1223,9 @@
       <c r="H17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -1233,7 +1235,9 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="1"/>
+      <c r="S17" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -1271,15 +1275,15 @@
       <c r="X18" s="1"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="2"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -1624,6 +1628,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A1:AC2"/>
+    <mergeCell ref="A3:AC3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A16:G16"/>
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="A6:G6"/>
@@ -1640,22 +1660,6 @@
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A1:AC2"/>
-    <mergeCell ref="A3:AC3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="S5:X5"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A16:G16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I7">

--- a/docs/Milestones.xlsx
+++ b/docs/Milestones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\Source\Github\nt\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B533C7F4-0971-412D-90ED-14A0100644BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2AB791-6316-4F16-9782-0A903FC58055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
   <si>
     <t>PROJECT MILESTONES</t>
   </si>
@@ -314,6 +314,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -321,42 +357,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -673,7 +673,7 @@
   <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,148 +686,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="25" t="s">
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="1"/>
       <c r="I6" s="5" t="s">
         <v>24</v>
@@ -1147,15 +1147,15 @@
       <c r="X14" s="1"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="2"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1198,7 +1198,9 @@
         <v>30</v>
       </c>
       <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="P16" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="1" t="s">
@@ -1232,7 +1234,9 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="P17" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="1" t="s">
@@ -1275,15 +1279,15 @@
       <c r="X18" s="1"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="2"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -1628,6 +1632,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:G23"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A1:AC2"/>
     <mergeCell ref="A3:AC3"/>
@@ -1644,22 +1664,6 @@
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:G23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I7">
